--- a/medicine/Œil et vue/Trachome/Trachome.xlsx
+++ b/medicine/Œil et vue/Trachome/Trachome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trachome est une infection oculaire bactérienne non spécifique et contagieuse causée par Chlamydia trachomatis. Touchant au départ la paupière, il évolue en l'absence de traitement vers des lésions cornéennes irréversibles pouvant mener à la cécité.
-L'Organisation mondiale de la santé (OMS) la classe parmi la liste des 20 maladies tropicales négligées. Des efforts d'élimination du trachome sont entrepris en 1996, avec pour objectif l'élimination de la maladie avant 2020, ensuite reporté à 2030[1].
-En 2022, l'OMS estime que 1,9 million de personnes sont malvoyantes dans le monde à cause du trachome, et que 125 millions de personnes vivent dans une zone à risque. Cette maladie est notamment courante chez les enfants[1].
+L'Organisation mondiale de la santé (OMS) la classe parmi la liste des 20 maladies tropicales négligées. Des efforts d'élimination du trachome sont entrepris en 1996, avec pour objectif l'élimination de la maladie avant 2020, ensuite reporté à 2030.
+En 2022, l'OMS estime que 1,9 million de personnes sont malvoyantes dans le monde à cause du trachome, et que 125 millions de personnes vivent dans une zone à risque. Cette maladie est notamment courante chez les enfants.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme est dérivé du nouveau latin trāchōma, du grec τράχωμα (trākhōma), dérivé de τραχύς (trākhus), « rugueux ».
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification du trachome est basée sur l’examen clinique. Cette classification simplifiée de l’OMS revêt un intérêt individuel et collectif (conséquences sur la santé publique)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification du trachome est basée sur l’examen clinique. Cette classification simplifiée de l’OMS revêt un intérêt individuel et collectif (conséquences sur la santé publique) : 
 - TF : trachome inflammatoire folliculaire (conjonctivite), 
 - TI : trachome inflammatoire intense, 
 - TS : trachome cicatriciel, 
@@ -581,9 +597,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antibiotiques sont efficaces pour traiter l'infection, en particulier l'azithromycine. La chirurgie permet d'éviter et de réduire les dommages à la vision[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antibiotiques sont efficaces pour traiter l'infection, en particulier l'azithromycine. La chirurgie permet d'éviter et de réduire les dommages à la vision.
 </t>
         </is>
       </c>
@@ -612,14 +630,16 @@
           <t>Élimination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les programmes d'élimination du trachome sont inspirés de la stratégie « CHANCE » recommandée par l'OMS. Cette stratégie repose sur quatre points :
 la chirurgie ;
 les antibiotiques, dont l'azithromycine, pour traiter les infections ainsi qu'en administration massive et préventive ;
 le nettoyage du visage ;
 l'amélioration de l'accès à l'eau et l'assainissement.
-Cet acronyme dérive de la stratégie SAFE (surgery, antibiotics, facial cleanliness, environmental improvement). L'efficacité des mesures non antibiotiques doit être soulignée. Le trachome a disparu d'Europe occidentale et d'Amérique du Nord grâce à des mesures d’hygiène individuelle et collective grâce aux progrès de type socio-économiques et ceci avant l'utilisation de masse des antibiotiques. Cependant, le trachome ne semble pas disparaître de lui-même dans les foyers à prévalence élevée. L'intervention des antibiotiques est donc indispensable pour obtenir et accélérer la réduction de la prévalence du trachome[2].
+Cet acronyme dérive de la stratégie SAFE (surgery, antibiotics, facial cleanliness, environmental improvement). L'efficacité des mesures non antibiotiques doit être soulignée. Le trachome a disparu d'Europe occidentale et d'Amérique du Nord grâce à des mesures d’hygiène individuelle et collective grâce aux progrès de type socio-économiques et ceci avant l'utilisation de masse des antibiotiques. Cependant, le trachome ne semble pas disparaître de lui-même dans les foyers à prévalence élevée. L'intervention des antibiotiques est donc indispensable pour obtenir et accélérer la réduction de la prévalence du trachome.
 La stratégie de lutte repose donc sur :  
 la prévention primaire : hygiène,
 la prévention secondaire : traitement antibiotique,
@@ -661,12 +681,14 @@
           <t>Épidémiologie et situation mondiale actuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'OMS vise l'élimination des infections oculaires à Chlamydia trachomatis d'ici 2030.
 Au 5 octobre 2022, l’élimination du trachome en tant que problème de santé publique a été validée par l’OMS dans 15 pays (Arabie saoudite, Cambodge, Chine, Gambie, Ghana, Malawi, Maroc, Mexique, Myanmar, Népal, Oman, Laos, Iran, Togo et Vanuatu).
 Trois autres pays (Burundi, Iraq, Tunisie) ont indiqué avoir atteint les cibles de prévalence définies pour l’élimination. Le nombre de pays qui indiquaient que le trachome était un problème de santé publique était de 44.
-Au total, 145,6 millions de personnes vivaient dans les 1 224 districts, où la prévalence de la TF parmi les enfants de 1 à 9 ans était ≥ 5 % à un moment de l’année 2021 et répondaient aux critères pour la mise en œuvre des composantes A, N et CE de la stratégie CHANCE aux fins de l’élimination du trachome. Parmi elles, 86 % (124,7 millions) vivaient dans la Région africaine, dont 49 % (71,8 millions) en Éthiopie. Dans la Région européenne et dans la Région de l’Asie du Sud-Est, aucun district n’a été identifié comme nécessitant une mise en œuvre des composantes A, N et CE de la stratégie CHANCE. Au 1er juin 2022, 125,0 millions de personnes vivaient dans des districts où la prévalence de la TF était ≥ 5 %, soit une réduction de 8 % par rapport aux 136,2 millions de personnes au 21 juin 2021[3].
+Au total, 145,6 millions de personnes vivaient dans les 1 224 districts, où la prévalence de la TF parmi les enfants de 1 à 9 ans était ≥ 5 % à un moment de l’année 2021 et répondaient aux critères pour la mise en œuvre des composantes A, N et CE de la stratégie CHANCE aux fins de l’élimination du trachome. Parmi elles, 86 % (124,7 millions) vivaient dans la Région africaine, dont 49 % (71,8 millions) en Éthiopie. Dans la Région européenne et dans la Région de l’Asie du Sud-Est, aucun district n’a été identifié comme nécessitant une mise en œuvre des composantes A, N et CE de la stratégie CHANCE. Au 1er juin 2022, 125,0 millions de personnes vivaient dans des districts où la prévalence de la TF était ≥ 5 %, soit une réduction de 8 % par rapport aux 136,2 millions de personnes au 21 juin 2021.
 En 2021, 69 266 personnes ont été prises en charge pour un TT dans le monde, soit une hausse de 65 % par rapport aux 42 045 personnes prise en charge en 2020. Environ 67 % des traitements chirurgicaux du TT ont eu lieu en Éthiopie Au total, 64,6 millions de personnes ont reçu des antibiotiques en 2021 aux fins de l’élimination du trachome contre 32,8 millions en 2020. Ceci représente 44 % des 145,6 millions de personnes qui vivent dans des districts où un traitement antibiotique est indiqué aux fins d’élimination du trachome.
 </t>
         </is>
